--- a/biology/Origine et évolution du vivant/Polycladida/Polycladida.xlsx
+++ b/biology/Origine et évolution du vivant/Polycladida/Polycladida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyclades
 Les Polycladida (en français : polyclades) sont un ordre de vers plats du sous-embranchement des Rhabditophora.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’embranchement des vers plats Plathelminthes rassemble plus de 10 000 espèces et constitue donc l'un des plus étendus du règne animal. Dans le passé, les vers plats étaient classés en plusieurs larges groupes : les « vers libres » Turbellaria, les « vers parasites » Monogena, Digenea et Aspidogastrea, ainsi que les « vers solitaires » Cestoda et Cestodaria.
 Des recherches récentes ont montré que cette classification était erronée. Désormais, l’embranchement des Plathelminthes est divisé en deux groupes : les Turbellaria et les Neodermata (tous parasites).
@@ -545,7 +559,9 @@
           <t>Distinction au sein des Polycladida</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Polycladida se subdivise en deux sous-ordres les Cotylea et les Acotylea, cette distinction est uniquement physique et est déterminée par la présence ou non d'un cotylé (sorte de ventouse ventrale). Ainsi, les polyclades qui possèdent une « ventouse » sont classés dans les Cotylea, et ceux qui en sont démunis dans les Acotylea.
 Ce Cotylea est situé dans l'axe central de la face ventrale, souvent en retrait des pores femelles, et dans la partie postérieure du corps. Le Cotylea peut être difficile à observer et peut prendre la forme d'une petite dépression ou d'un petit bourrelet combinant des fonctions musculaires et adhésives.
@@ -577,7 +593,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vers plats sont principalement identifiables à leur corps allongé en forme de ruban ou de feuille et particulièrement plat, guère plus d’un millimètre d’épaisseur. Ce corps est non segmenté,  bi-symétrique latéralement avec une élévation centrale correspondant à la position du pharynx.
 La taille moyenne des vers plats varie entre 10 et 50 mm mais certains individus peuvent ne pas dépasser la dimension d’une tête d’épingle ou au contraire être aussi longs que le plat d’une main.
@@ -618,7 +636,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vers plats sont hermaphrodites, la copulation est croisée entre deux individus et la fécondation est interne.
 L’organe copulateur est musculaire, généralement renforcé par une structure dure comme un « stylet ou une épine »  et est capable de fournir une poussée propulsive afin de traverser le corps de son partenaire et d’y déposer les gamètes mâles lors de l’accouplement. Ce mode reproductif est appelé l’insémination hypodermique.  Ce type de reproduction permet à deux vers d’emmagasiner les gamètes mâles du partenaire. La fertilisation des ovules s’effectue à la suite de l'accouplement, réduisant ainsi les risques d’auto-fertilisation.
@@ -652,7 +672,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vers plats marins sont  essentiellement des vers libres, c'est-à-dire qu’ils ne sont pas des parasites comme la majorité des autres vers.
 Ils sont benthiques et vivent généralement dans la zone littorale jusqu’à des profondeurs supérieures à quarante mètres sur des fonds coralliens, rocheux, détritiques, vaseux et sableux. Certains sont capables de nager par ondulation de leur corps.
@@ -685,7 +707,9 @@
           <t>Nourriture et mode alimentaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vers plats sont des prédateurs carnivores qui se nourrissent de bryozoaires, d’ascidies coloniaux, de cnidaires ou de mollusques bivalves (ex : huîtres, moules…).
 Pour se nourrir, les vers plats extériorisent leur pharynx, situé sur la face ventrale dans la zone centrale, pour l’étendre sur leur proie, l’ingestion par succion débute. La nourriture digérée est diffusée dans tout le corps via un intestin extrêmement ramifié.
@@ -722,11 +746,51 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Polycladida
-Le nom valide complet (avec auteur) de ce taxon est Polycladida Lang, 1884 [viz. Faubel 1983/1984][1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Polyclades[1].
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (10 novembre 2023)[1], l'ordre des Polycladida se décompose en deux sous-ordres, Acotylea et Cotylea, une classe synonyme, Acotylina, et un genre isolé, Platydendron.
+          <t>Polycladida</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Polycladida Lang, 1884 [viz. Faubel 1983/1984].
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Polyclades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Polycladida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polycladida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie et classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (10 novembre 2023), l'ordre des Polycladida se décompose en deux sous-ordres, Acotylea et Cotylea, une classe synonyme, Acotylina, et un genre isolé, Platydendron.
 Sous-ordre des Acotylea :
 Famille des Anocellidae Quiroga, Bolanos &amp; Litvaitis, 2006
 Famille des Apidioplanidae Bock, 1926 
@@ -813,8 +877,43 @@
 			Prosthiostomum cf. trilineatum, un Prosthiostomidae.
 			Pseudoceros liparus, un Pseudocerotidae.
 			Stylochus pilidium, un Stylochidae.
-Position phylogénétique des Polycladida au sein des Plathelminthes
-Selon Turbellarian Taxonomic Database, Version 2.0[2],[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Polycladida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polycladida</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxinomie et classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Position phylogénétique des Polycladida au sein des Plathelminthes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
 </t>
         </is>
       </c>
